--- a/HuShihHall.xlsx
+++ b/HuShihHall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048EBC7-16EC-FA49-89ED-1EAC8A0A18B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD373C-6E7C-DE49-93A8-09E9AFECB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6643,12 +6643,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6663,9 +6669,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7007,8 +7014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B141" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9106,7 +9113,7 @@
         <f t="array" ref="G60">INDEX(D:D, (ROW()-ROW(D$2))*4 + 2)</f>
         <v>4.060967083</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>1906</v>
       </c>
       <c r="I60" t="str" cm="1">

--- a/HuShihHall.xlsx
+++ b/HuShihHall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD373C-6E7C-DE49-93A8-09E9AFECB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FEFBC7-F7CA-3D4B-BAF7-94599E97C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7014,7 +7014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="81" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
